--- a/classfiers/bottleneck/MLP/bottleneck-mlp-results.xlsx
+++ b/classfiers/bottleneck/MLP/bottleneck-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2676056338028169</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8999016232169208</v>
+        <v>0.9674418604651163</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2448979591836735</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.631578947368421</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8836694540088539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9987080103359174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9807892004153685</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9620976116303218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6802784963750759</v>
+        <v>0.8883720930232558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6485380116959065</v>
+        <v>0.5783625730994151</v>
       </c>
       <c r="D7" t="n">
-        <v>0.566884531590414</v>
+        <v>0.5835612046681656</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9450331799214764</v>
+        <v>0.9934883720930232</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/MLP/bottleneck-mlp-results.xlsx
+++ b/classfiers/bottleneck/MLP/bottleneck-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4418604651162791</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9674418604651163</v>
+        <v>0.9532019704433498</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.972972972972973</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8883720930232558</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5783625730994151</v>
+        <v>0.5444444444444445</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5835612046681656</v>
+        <v>0.5683760683760684</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9934883720930232</v>
+        <v>0.9906403940886699</v>
       </c>
     </row>
   </sheetData>
